--- a/invoices.xlsx
+++ b/invoices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1493DE-E262-4587-B563-5BAFB4F27F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D4C15F-9948-4D1C-A6F7-E3C21BAB0D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FE1115C0-24FC-4035-9212-8C18495B93D9}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>payment</t>
-  </si>
-  <si>
-    <t>7/2/</t>
   </si>
 </sst>
 </file>
@@ -389,7 +386,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,8 +419,8 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" s="1">
+        <v>45329</v>
       </c>
     </row>
   </sheetData>
